--- a/street1.xlsx
+++ b/street1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Krish\Coding\HTN 23\htn2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9A7993-482B-40E2-9737-EFCCF4D6BAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87111D3D-AD36-45B4-855D-2E5F12D1B8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,8 +368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,10 +642,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>43.482137000000002</v>
+        <v>43.482100000000003</v>
       </c>
       <c r="B30" s="2">
-        <v>-80.525541000000004</v>
+        <v>-80.525640999999993</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -879,8 +875,8 @@
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>27.5</v>
+      <c r="A56" s="2">
+        <v>43.481859999999998</v>
       </c>
       <c r="B56" s="2">
         <v>43.481859999999998</v>
